--- a/Week1/Project/BankingAppSD/UseCases.xlsx
+++ b/Week1/Project/BankingAppSD/UseCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>NAME</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:H32"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,7 +857,7 @@
         <v>5000</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
@@ -882,16 +882,16 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>4450</v>
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
